--- a/data/georgia_census/imereti/xaragauli/age_dependency.xlsx
+++ b/data/georgia_census/imereti/xaragauli/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DA8BC31-54A3-4025-A494-9079AEC79645}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{568EC7AF-28B5-4992-B5A4-D851FA0226F6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C46E74F-269E-4FB6-8B4F-3EB5F172087E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1578B242-E230-448F-9157-510FDF1C5398}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD183CA-2A5F-4619-85E7-8CF0317651C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E09435D-9037-46EF-BFF9-92AC91382145}"/>
 </file>